--- a/요구사항정의서/20220226_수정/요구사항정의서_신효원_수정.xlsx
+++ b/요구사항정의서/20220226_수정/요구사항정의서_신효원_수정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Final Project\YMPM\요구사항정의서\20220226_수정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C02BCB3-05B4-40A6-8D0E-2D657AB4FE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E42842-0F06-4B12-A765-053205254C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="100">
   <si>
     <t>요구사항 정의서</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -427,13 +427,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>○ 메뉴와 권한 매핑
- - 매핑 조건: 권한 ID, 메뉴 ID
- - 메뉴에 따라 접근 가능한 사용자 권한 분류 가능하도록 서로 매핑해 주기 (권한 ID와 메뉴 ID 매핑)
- - 메뉴 생성, 혹은 수정할 때 권한 매핑 가능</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>메뉴 목록 조회</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -456,20 +449,6 @@
 - 회원 ID 선택 시 회원 상세 조회 페이지로 이동 (회원 ID 값을 전달)
 ○ 회원 등록
 - 회원 등록 버튼 선택 시 회원 등록 페이지로 이동</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-○ 권한 목록 조회 결과
-- 권한 ID (PK) : 권한 고유 일련번호 (링크, Text)
-- 권한명: 사용자의 권한 고유 명칭 (Text)
-- 유효기간: 권한 활성화 기간(Text)
-- 활성화 여부: 권한의 활성화 여부 지정 (Text)
-- 생성자: 권한을 등록한 관리자 ID(Text)
-- 생성일자, 수정일자(Text)
-○ 제약조건
-- 권한 ID 선택 시 해당 권한 상세 조회 페이지로 이동 (권한 ID 값을 전달)
-- 권한 등록 버튼을 선택 시 신규 권한 등록 페이지로 이동</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -565,23 +544,6 @@
   </si>
   <si>
     <t>선택한 메뉴에 대한 상세 조회</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-○ 권한 정보
-- 권한 ID (PK) : 권한 고유 일련번호 (자동생성, Text)
-- 권한명: 사용자의 권한 고유 명칭 (입력, Text)
-- 유효기간: 권한 활성화 기간(선택, Date:Time / YYYYMMDD:HHMMSS)
-- 활성화 여부: 권한의 활성화 여부 지정 (선택, Number)
-- 생성자: 권한을 등록한 관리자 ID(자동생성, Text)
-- 생성일자, 수정일자(자동 생성, YYYYMMDD:HHMMSS)
-○ 제약조건
-- 권한 ID는 8자리 일련번호 숫자로 생성되어야 한다. 
-- 권한 이름은 30자를 넘지 않도록 한다.
-- 권한 유효기간은 영구사용(0), 기간지정(1)를 선택한 후 기간 지정일 경우 달력을 통해 YYYYMIDD:HHMMSS)로 입력하고 기본값은 영구사용(0)으로 지정
-- 권한 활성화 여부는 비활성화(0), 활성화(1)을 선택, 기본값은 비활성화(0)으로 지정
-- 등록을 선택하면 해당 정보를 통해 DB에 등록처리 후 등록결과 확인창을 출력 후 권한 목록 조회 페이지로 이동</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -739,22 +701,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-○ 권한 수정 가능한 정보
-- 권한명: 사용자의 권한 고유 명칭 (입력, Text)
-- 유효기간: 권한 활성화 기간(선택, Date Time YYYYMMDD:HHMMSS)
-- 활성화 여부: 권한의 활성화 여부 지정 (선택, Number)
-○ 제약조건
-- 권한 ID, 권한 생성자, 생성일자, 수정일자는 수정이 불가능하다.
-- 수정 불가능한 항목은 칸이 이미 회색 글자로 채워져 있도록 한다.
-- 권한명은 30자를 넘지 않도록 한다.
-- 권한 유효기간은 영구사용(0), 기간지정(1)를 선택한 후 기간 지정일 경우 달력을 통해 YYYYMIDD:HHMMSS)로 입력하고 기본값은 영구사용(0)으로 지정
-- 권한 활성화 여부는 비활성화(0), 활성화(1)을 선택, 기본값은 비활성화(0)으로 지정
-- 수정을 선택하면 해당 정보를 통해 DB에 수정처리 후 수정결과 확인창을 출력 후 게시판 목록조회 페이지로 이동
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
 ○ 메뉴 수정 가능한 정보
 - 메뉴명: 메뉴의 고유 명칭 (입력, Text)
 - 유효기간: 메뉴의 활성화 기간 (선택, Date:Time / YYYYMIDD:HHMMSS)
@@ -808,26 +754,6 @@
 ○ 회원 삭제
  - 삭제 버튼 선택 시 '정말 탈퇴하시겠습니까? '라는 팝업창이 뜬 후 'Yes' 선택 시 해당 회원의 활성화 여부를 비활성화로 변경. 비활성화가 완료되면 확인 메세지 출력. 확인이 완료되면 메인 페이지로 이동
  - 삭제 기능은 회원 상세 조회 페이지에서만 가능</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-○ 권한 상세 조회 조건
-- 검색 조건: 권한 ID
-○ 권한 상세 조회 결과
-- 권한 ID (PK) : 권한 고유 일련번호 (수정불가, Text)
-- 권한명: 사용자의 권한 고유 명칭 (수정가능, Text)
-- 유효기간: 권한 활성화 기간(수정가능, Date:Time / YYYYMMDD:HHMMSS)
-- 활성화 여부: 권한의 활성화 여부 지정 (수정가능, Number)
-- 생성자: 권한을 등록한 관리자 ID(수정불가, Text)
-- 생성일자, 수정일자(수정불가, YYYYMMDD:HHMMSS)
-○ 권한 목록 조회
-- 권한 목록 버튼 선택 시 게시판 목록 조회 페이지로 이동
-○ 권한 수정
-  - 수정 버튼 선택 시 권한 수정 페이지로 이동
-○ 권한 삭제
-  - 삭제 버튼 선택 시 '이 권한의 모든 정보를 삭제하시겠습니까?'라는 팝업창이 뜬 후 'Yes' 선택 시 해당 권한의 활성화 여부를 비활성화로 변경. 비활성화가 완료되면 확인 메세지 출력. 확인이 완료되면 권한 목록페이지로 이동
-- 삭제 기능은 권한 상세 조회 페이지에서만 가능</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1130,6 +1056,87 @@
 - 수정을 선택하면 해당 정보를 통해 DB에 수정처리 후 수정결과 확인창을 출력 후 아이템 목록조회 페이지로 이동</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">
+○ 권한 상세 조회 조건
+- 검색 조건: 권한 ID
+○ 권한 상세 조회 결과
+- 권한 ID (PK) : 권한 고유 일련번호 (수정불가, Text)
+- 권한명: 사용자의 권한 고유 명칭 (수정가능, Text)
+- 유효기간: 권한 활성화 기간(수정가능, Date:Time / YYYYMMDD:HHMMSS)
+- 활성화 여부: 권한의 활성화 여부 지정 (수정가능, Number)
+- 권한 메뉴: 권한이 부여된 메뉴 (수정가능, Select)
+- 생성자: 권한을 등록한 관리자 ID (수정불가, Text)
+- 생성일자, 수정일자(수정불가, YYYYMMDD:HHMMSS)
+○ 권한 목록 조회
+- 권한 목록 버튼 선택 시 게시판 목록 조회 페이지로 이동
+○ 권한 수정
+  - 수정 버튼 선택 시 권한 수정 페이지로 이동
+○ 권한 삭제
+  - 삭제 버튼 선택 시 '이 권한의 모든 정보를 삭제하시겠습니까?'라는 팝업창이 뜬 후 'Yes' 선택 시 해당 권한의 활성화 여부를 비활성화로 변경. 비활성화가 완료되면 확인 메세지 출력. 확인이 완료되면 권한 목록페이지로 이동
+- 삭제 기능은 권한 상세 조회 페이지에서만 가능</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+○ 권한 수정 가능한 정보
+- 권한명: 사용자의 권한 고유 명칭 (입력, Text)
+- 유효기간: 권한 활성화 기간(선택, Date Time YYYYMMDD:HHMMSS)
+- 권한 메뉴: 권한이 부여된 메뉴 (선택, Select)
+- 활성화 여부: 권한의 활성화 여부 지정 (선택, Number)
+○ 제약조건
+- 권한 ID, 권한 생성자, 생성일자, 수정일자는 수정이 불가능하다.
+- 수정 불가능한 항목은 칸이 이미 회색 글자로 채워져 있도록 한다.
+- 권한명은 30자를 넘지 않도록 한다.
+- 권한 유효기간은 영구사용(0), 기간지정(1)를 선택한 후 기간 지정일 경우 달력을 통해 YYYYMIDD:HHMMSS)로 입력하고 기본값은 영구사용(0)으로 지정
+- 권한 활성화 여부는 비활성화(0), 활성화(1)을 선택, 기본값은 비활성화(0)으로 지정
+- 권한 메뉴는 드롭다운 리스트로 이미 존재하는 메뉴를 선택할 수 있도록 한다.
+- 수정을 선택하면 해당 정보를 통해 DB에 수정처리 후 수정결과 확인창을 출력 후 게시판 목록조회 페이지로 이동
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>○ 메뉴와 권한 매핑
+ - 매핑 조건: 권한 ID, 메뉴 ID
+ - 메뉴에 따라 접근 가능한 사용자 권한 분류 가능하도록 서로 매핑해 주기 (권한 ID와 메뉴 ID 매핑)
+ - 메뉴 생성, 혹은 수정할 때 권한 매핑 가능
+ - 권한 수정 기능에서 메뉴와의 매핑 수정 가능하도록 구현</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+○ 권한 목록 조회 결과
+- 권한 ID (PK) : 권한 고유 일련번호 (링크, Text)
+- 권한명: 사용자의 권한 고유 명칭 (Text)
+- 권한 메뉴: 권한이 부여된 메뉴 (Text)
+- 유효기간: 권한 활성화 기간(Text)
+- 활성화 여부: 권한의 활성화 여부 지정 (Text)
+- 생성자: 권한을 등록한 관리자 ID(Text)
+- 생성일자, 수정일자(Text)
+○ 제약조건
+- 권한 ID 선택 시 해당 권한 상세 조회 페이지로 이동 (권한 ID 값을 전달)
+- 권한 등록 버튼을 선택 시 신규 권한 등록 페이지로 이동</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+○ 권한 정보
+- 권한 ID (PK) : 권한 고유 일련번호 (자동생성, Text)
+- 권한명: 사용자의 권한 고유 명칭 (입력, Text)
+- 권한 메뉴: 권한이 부여된 메뉴 (선택, Select)
+- 유효기간: 권한 활성화 기간(선택, Date:Time / YYYYMMDD:HHMMSS)
+- 활성화 여부: 권한의 활성화 여부 지정 (선택, Number)
+- 생성자: 권한을 등록한 관리자 ID(자동생성, Text)
+- 생성일자, 수정일자(자동 생성, YYYYMMDD:HHMMSS)
+○ 제약조건
+- 권한 ID는 8자리 일련번호 숫자로 생성되어야 한다. 
+- 권한 이름은 30자를 넘지 않도록 한다.
+- 권한 메뉴는 드롭다운 리스트로 이미 존재하는 메뉴를 선택할 수 있도록 한다.
+- 권한 유효기간은 영구사용(0), 기간지정(1)를 선택한 후 기간 지정일 경우 달력을 통해 YYYYMIDD:HHMMSS)로 입력하고 기본값은 영구사용(0)으로 지정
+- 권한 활성화 여부는 비활성화(0), 활성화(1)을 선택, 기본값은 비활성화(0)으로 지정
+- 등록을 선택하면 해당 정보를 통해 DB에 등록처리 후 등록결과 확인창을 출력 후 권한 목록 조회 페이지로 이동</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1400,28 +1407,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1442,13 +1428,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -43277,8 +43284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B34DEF-0DAC-4C07-8919-D07456BFE10E}">
   <dimension ref="A1:F316"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A264" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="95" workbookViewId="0">
-      <selection activeCell="G281" sqref="G281"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A308" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="95" workbookViewId="0">
+      <selection activeCell="B251" sqref="B251:F251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="9.6"/>
@@ -43670,14 +43677,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -43708,12 +43715,12 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -43777,55 +43784,55 @@
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
+      <c r="B9" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" s="6" customFormat="1" ht="109.5" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6" s="6" customFormat="1" ht="108" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="149.25" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="20"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A17" s="2" t="s">
@@ -43856,12 +43863,12 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1">
       <c r="A20" s="2" t="s">
@@ -43925,57 +43932,57 @@
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
+      <c r="B24" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" s="6" customFormat="1" ht="109.5" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="24"/>
     </row>
     <row r="26" spans="1:6" s="6" customFormat="1" ht="108" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" ht="149.25" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="20"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="32" spans="1:6" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A33" s="2" t="s">
@@ -44006,12 +44013,12 @@
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A35" s="23"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="25"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1">
       <c r="A36" s="2" t="s">
@@ -44075,57 +44082,57 @@
       <c r="A40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="14"/>
+      <c r="B40" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" s="6" customFormat="1" ht="109.5" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="17"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="24"/>
     </row>
     <row r="42" spans="1:6" s="6" customFormat="1" ht="108" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="20"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6" ht="149.25" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="20"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
       <c r="D43" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="20"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="13"/>
     </row>
     <row r="48" spans="1:6" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
     </row>
     <row r="49" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A49" s="2" t="s">
@@ -44156,12 +44163,12 @@
       <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A51" s="23"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="25"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="18"/>
     </row>
     <row r="52" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -44225,57 +44232,57 @@
       <c r="A56" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="14"/>
+      <c r="B56" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" s="6" customFormat="1" ht="109.5" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="17"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="24"/>
     </row>
     <row r="58" spans="1:6" s="6" customFormat="1" ht="108" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="20"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="13"/>
     </row>
     <row r="59" spans="1:6" ht="149.25" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="20"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="13"/>
       <c r="D59" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="18"/>
-      <c r="F59" s="20"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="13"/>
     </row>
     <row r="63" spans="1:6" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
     </row>
     <row r="64" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A64" s="2" t="s">
@@ -44306,12 +44313,12 @@
       <c r="F65" s="5"/>
     </row>
     <row r="66" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A66" s="23"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="25"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1">
       <c r="A67" s="2" t="s">
@@ -44375,55 +44382,55 @@
       <c r="A71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="14"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="21"/>
     </row>
     <row r="72" spans="1:6" s="6" customFormat="1" ht="109.5" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B72" s="15"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="17"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="24"/>
     </row>
     <row r="73" spans="1:6" s="6" customFormat="1" ht="108" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="20"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="13"/>
     </row>
     <row r="74" spans="1:6" ht="149.25" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="20"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="13"/>
       <c r="D74" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E74" s="18"/>
-      <c r="F74" s="20"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="13"/>
     </row>
     <row r="78" spans="1:6" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
     </row>
     <row r="79" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A79" s="2" t="s">
@@ -44454,12 +44461,12 @@
       <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A81" s="23"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="25"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="18"/>
     </row>
     <row r="82" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1">
       <c r="A82" s="2" t="s">
@@ -44523,57 +44530,57 @@
       <c r="A86" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B86" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="14"/>
+      <c r="B86" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" s="6" customFormat="1" ht="109.5" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="17"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="24"/>
     </row>
     <row r="88" spans="1:6" s="6" customFormat="1" ht="108" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B88" s="18"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="20"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="13"/>
     </row>
     <row r="89" spans="1:6" ht="149.25" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B89" s="18"/>
-      <c r="C89" s="20"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="13"/>
       <c r="D89" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E89" s="18"/>
-      <c r="F89" s="20"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="13"/>
     </row>
     <row r="93" spans="1:6" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A93" s="21" t="s">
+      <c r="A93" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="21"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
     </row>
     <row r="94" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A94" s="2" t="s">
@@ -44604,12 +44611,12 @@
       <c r="F95" s="5"/>
     </row>
     <row r="96" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A96" s="23"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="25"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="18"/>
     </row>
     <row r="97" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1">
       <c r="A97" s="2" t="s">
@@ -44662,7 +44669,7 @@
         <v>15</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
@@ -44673,55 +44680,55 @@
       <c r="A101" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B101" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="14"/>
+      <c r="B101" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="21"/>
     </row>
     <row r="102" spans="1:6" s="6" customFormat="1" ht="109.5" customHeight="1">
       <c r="A102" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B102" s="15"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="17"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="24"/>
     </row>
     <row r="103" spans="1:6" s="6" customFormat="1" ht="108" customHeight="1">
       <c r="A103" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B103" s="18"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="20"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="13"/>
     </row>
     <row r="104" spans="1:6" ht="149.25" customHeight="1">
       <c r="A104" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B104" s="18"/>
-      <c r="C104" s="20"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="13"/>
       <c r="D104" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E104" s="18"/>
-      <c r="F104" s="20"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="13"/>
     </row>
     <row r="108" spans="1:6" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A108" s="21" t="s">
+      <c r="A108" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B108" s="21"/>
-      <c r="C108" s="21"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="22"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
     </row>
     <row r="109" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A109" s="2" t="s">
@@ -44752,12 +44759,12 @@
       <c r="F110" s="5"/>
     </row>
     <row r="111" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A111" s="23"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="25"/>
+      <c r="A111" s="16"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="18"/>
     </row>
     <row r="112" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1">
       <c r="A112" s="2" t="s">
@@ -44821,57 +44828,57 @@
       <c r="A116" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="14"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="21"/>
     </row>
     <row r="117" spans="1:6" s="6" customFormat="1" ht="109.5" customHeight="1">
       <c r="A117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B117" s="28" t="s">
+      <c r="B117" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="17"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="24"/>
     </row>
     <row r="118" spans="1:6" s="6" customFormat="1" ht="108" customHeight="1">
       <c r="A118" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B118" s="18"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="20"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="13"/>
     </row>
     <row r="119" spans="1:6" ht="149.25" customHeight="1">
       <c r="A119" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B119" s="18"/>
-      <c r="C119" s="20"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="13"/>
       <c r="D119" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E119" s="18"/>
-      <c r="F119" s="20"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="13"/>
     </row>
     <row r="123" spans="1:6" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A123" s="21" t="s">
+      <c r="A123" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B123" s="21"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="21"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="22"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
     </row>
     <row r="124" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A124" s="2" t="s">
@@ -44902,14 +44909,14 @@
       <c r="F125" s="5"/>
     </row>
     <row r="126" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A126" s="23" t="s">
+      <c r="A126" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="25"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="18"/>
     </row>
     <row r="127" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1">
       <c r="A127" s="2" t="s">
@@ -44973,57 +44980,57 @@
       <c r="A131" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B131" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="14"/>
+      <c r="B131" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="21"/>
     </row>
     <row r="132" spans="1:6" s="6" customFormat="1" ht="109.5" customHeight="1">
       <c r="A132" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B132" s="28" t="s">
+      <c r="B132" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C132" s="16"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="16"/>
-      <c r="F132" s="17"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="24"/>
     </row>
     <row r="133" spans="1:6" s="6" customFormat="1" ht="108" customHeight="1">
       <c r="A133" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B133" s="18"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19"/>
-      <c r="F133" s="20"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="25"/>
+      <c r="E133" s="25"/>
+      <c r="F133" s="13"/>
     </row>
     <row r="134" spans="1:6" ht="149.25" customHeight="1">
       <c r="A134" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B134" s="18"/>
-      <c r="C134" s="20"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="13"/>
       <c r="D134" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E134" s="18"/>
-      <c r="F134" s="20"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="13"/>
     </row>
     <row r="138" spans="1:6" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A138" s="21" t="s">
+      <c r="A138" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B138" s="21"/>
-      <c r="C138" s="21"/>
-      <c r="D138" s="21"/>
-      <c r="E138" s="22"/>
-      <c r="F138" s="22"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
     </row>
     <row r="139" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A139" s="2" t="s">
@@ -45054,12 +45061,12 @@
       <c r="F140" s="5"/>
     </row>
     <row r="141" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A141" s="23"/>
-      <c r="B141" s="24"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="24"/>
-      <c r="E141" s="24"/>
-      <c r="F141" s="25"/>
+      <c r="A141" s="16"/>
+      <c r="B141" s="17"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="18"/>
     </row>
     <row r="142" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1">
       <c r="A142" s="2" t="s">
@@ -45123,57 +45130,57 @@
       <c r="A146" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B146" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C146" s="26"/>
-      <c r="D146" s="26"/>
-      <c r="E146" s="26"/>
-      <c r="F146" s="27"/>
+      <c r="B146" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C146" s="27"/>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27"/>
+      <c r="F146" s="28"/>
     </row>
     <row r="147" spans="1:6" s="6" customFormat="1" ht="109.5" customHeight="1">
       <c r="A147" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B147" s="15" t="s">
+      <c r="B147" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C147" s="16"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="16"/>
-      <c r="F147" s="17"/>
+      <c r="C147" s="23"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="24"/>
     </row>
     <row r="148" spans="1:6" s="6" customFormat="1" ht="108" customHeight="1">
       <c r="A148" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B148" s="18"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="19"/>
-      <c r="E148" s="19"/>
-      <c r="F148" s="20"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="25"/>
+      <c r="D148" s="25"/>
+      <c r="E148" s="25"/>
+      <c r="F148" s="13"/>
     </row>
     <row r="149" spans="1:6" ht="149.25" customHeight="1">
       <c r="A149" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B149" s="18"/>
-      <c r="C149" s="20"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="13"/>
       <c r="D149" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E149" s="18"/>
-      <c r="F149" s="20"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="13"/>
     </row>
     <row r="153" spans="1:6" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A153" s="21" t="s">
+      <c r="A153" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B153" s="21"/>
-      <c r="C153" s="21"/>
-      <c r="D153" s="21"/>
-      <c r="E153" s="22"/>
-      <c r="F153" s="22"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15"/>
     </row>
     <row r="154" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A154" s="2" t="s">
@@ -45204,12 +45211,12 @@
       <c r="F155" s="5"/>
     </row>
     <row r="156" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A156" s="23"/>
-      <c r="B156" s="24"/>
-      <c r="C156" s="24"/>
-      <c r="D156" s="24"/>
-      <c r="E156" s="24"/>
-      <c r="F156" s="25"/>
+      <c r="A156" s="16"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="17"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="18"/>
     </row>
     <row r="157" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1">
       <c r="A157" s="2" t="s">
@@ -45262,7 +45269,7 @@
         <v>15</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
@@ -45273,57 +45280,55 @@
       <c r="A161" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B161" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C161" s="26"/>
-      <c r="D161" s="26"/>
-      <c r="E161" s="26"/>
-      <c r="F161" s="27"/>
+      <c r="B161" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C161" s="27"/>
+      <c r="D161" s="27"/>
+      <c r="E161" s="27"/>
+      <c r="F161" s="28"/>
     </row>
     <row r="162" spans="1:6" s="6" customFormat="1" ht="109.5" customHeight="1">
       <c r="A162" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B162" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C162" s="16"/>
-      <c r="D162" s="16"/>
-      <c r="E162" s="16"/>
-      <c r="F162" s="17"/>
+      <c r="B162" s="26"/>
+      <c r="C162" s="23"/>
+      <c r="D162" s="23"/>
+      <c r="E162" s="23"/>
+      <c r="F162" s="24"/>
     </row>
     <row r="163" spans="1:6" s="6" customFormat="1" ht="108" customHeight="1">
       <c r="A163" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B163" s="18"/>
-      <c r="C163" s="19"/>
-      <c r="D163" s="19"/>
-      <c r="E163" s="19"/>
-      <c r="F163" s="20"/>
+      <c r="B163" s="12"/>
+      <c r="C163" s="25"/>
+      <c r="D163" s="25"/>
+      <c r="E163" s="25"/>
+      <c r="F163" s="13"/>
     </row>
     <row r="164" spans="1:6" ht="149.25" customHeight="1">
       <c r="A164" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B164" s="18"/>
-      <c r="C164" s="20"/>
+      <c r="B164" s="12"/>
+      <c r="C164" s="13"/>
       <c r="D164" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E164" s="18"/>
-      <c r="F164" s="20"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="13"/>
     </row>
     <row r="168" spans="1:6" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A168" s="21" t="s">
+      <c r="A168" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B168" s="21"/>
-      <c r="C168" s="21"/>
-      <c r="D168" s="21"/>
-      <c r="E168" s="22"/>
-      <c r="F168" s="22"/>
+      <c r="B168" s="14"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="15"/>
     </row>
     <row r="169" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A169" s="2" t="s">
@@ -45354,12 +45359,12 @@
       <c r="F170" s="5"/>
     </row>
     <row r="171" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A171" s="23"/>
-      <c r="B171" s="24"/>
-      <c r="C171" s="24"/>
-      <c r="D171" s="24"/>
-      <c r="E171" s="24"/>
-      <c r="F171" s="25"/>
+      <c r="A171" s="16"/>
+      <c r="B171" s="17"/>
+      <c r="C171" s="17"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="18"/>
     </row>
     <row r="172" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1">
       <c r="A172" s="2" t="s">
@@ -45423,57 +45428,57 @@
       <c r="A176" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B176" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C176" s="13"/>
-      <c r="D176" s="13"/>
-      <c r="E176" s="13"/>
-      <c r="F176" s="14"/>
+      <c r="B176" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C176" s="20"/>
+      <c r="D176" s="20"/>
+      <c r="E176" s="20"/>
+      <c r="F176" s="21"/>
     </row>
     <row r="177" spans="1:6" s="6" customFormat="1" ht="109.5" customHeight="1">
       <c r="A177" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B177" s="28" t="s">
+      <c r="B177" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C177" s="16"/>
-      <c r="D177" s="16"/>
-      <c r="E177" s="16"/>
-      <c r="F177" s="17"/>
+      <c r="C177" s="23"/>
+      <c r="D177" s="23"/>
+      <c r="E177" s="23"/>
+      <c r="F177" s="24"/>
     </row>
     <row r="178" spans="1:6" s="6" customFormat="1" ht="108" customHeight="1">
       <c r="A178" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B178" s="18"/>
-      <c r="C178" s="19"/>
-      <c r="D178" s="19"/>
-      <c r="E178" s="19"/>
-      <c r="F178" s="20"/>
+      <c r="B178" s="12"/>
+      <c r="C178" s="25"/>
+      <c r="D178" s="25"/>
+      <c r="E178" s="25"/>
+      <c r="F178" s="13"/>
     </row>
     <row r="179" spans="1:6" ht="149.25" customHeight="1">
       <c r="A179" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B179" s="18"/>
-      <c r="C179" s="20"/>
+      <c r="B179" s="12"/>
+      <c r="C179" s="13"/>
       <c r="D179" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E179" s="18"/>
-      <c r="F179" s="20"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="13"/>
     </row>
     <row r="183" spans="1:6" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A183" s="21" t="s">
+      <c r="A183" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B183" s="21"/>
-      <c r="C183" s="21"/>
-      <c r="D183" s="21"/>
-      <c r="E183" s="22"/>
-      <c r="F183" s="22"/>
+      <c r="B183" s="14"/>
+      <c r="C183" s="14"/>
+      <c r="D183" s="14"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15"/>
     </row>
     <row r="184" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A184" s="2" t="s">
@@ -45504,12 +45509,12 @@
       <c r="F185" s="5"/>
     </row>
     <row r="186" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A186" s="23"/>
-      <c r="B186" s="24"/>
-      <c r="C186" s="24"/>
-      <c r="D186" s="24"/>
-      <c r="E186" s="24"/>
-      <c r="F186" s="25"/>
+      <c r="A186" s="16"/>
+      <c r="B186" s="17"/>
+      <c r="C186" s="17"/>
+      <c r="D186" s="17"/>
+      <c r="E186" s="17"/>
+      <c r="F186" s="18"/>
     </row>
     <row r="187" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1">
       <c r="A187" s="2" t="s">
@@ -45573,55 +45578,55 @@
       <c r="A191" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B191" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C191" s="26"/>
-      <c r="D191" s="26"/>
-      <c r="E191" s="26"/>
-      <c r="F191" s="27"/>
+      <c r="B191" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C191" s="27"/>
+      <c r="D191" s="27"/>
+      <c r="E191" s="27"/>
+      <c r="F191" s="28"/>
     </row>
     <row r="192" spans="1:6" s="6" customFormat="1" ht="109.5" customHeight="1">
       <c r="A192" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B192" s="15"/>
-      <c r="C192" s="16"/>
-      <c r="D192" s="16"/>
-      <c r="E192" s="16"/>
-      <c r="F192" s="17"/>
+      <c r="B192" s="22"/>
+      <c r="C192" s="23"/>
+      <c r="D192" s="23"/>
+      <c r="E192" s="23"/>
+      <c r="F192" s="24"/>
     </row>
     <row r="193" spans="1:6" s="6" customFormat="1" ht="108" customHeight="1">
       <c r="A193" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B193" s="18"/>
-      <c r="C193" s="19"/>
-      <c r="D193" s="19"/>
-      <c r="E193" s="19"/>
-      <c r="F193" s="20"/>
+      <c r="B193" s="12"/>
+      <c r="C193" s="25"/>
+      <c r="D193" s="25"/>
+      <c r="E193" s="25"/>
+      <c r="F193" s="13"/>
     </row>
     <row r="194" spans="1:6" ht="149.25" customHeight="1">
       <c r="A194" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B194" s="18"/>
-      <c r="C194" s="20"/>
+      <c r="B194" s="12"/>
+      <c r="C194" s="13"/>
       <c r="D194" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E194" s="18"/>
-      <c r="F194" s="20"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="13"/>
     </row>
     <row r="198" spans="1:6" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A198" s="21" t="s">
+      <c r="A198" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B198" s="21"/>
-      <c r="C198" s="21"/>
-      <c r="D198" s="21"/>
-      <c r="E198" s="22"/>
-      <c r="F198" s="22"/>
+      <c r="B198" s="14"/>
+      <c r="C198" s="14"/>
+      <c r="D198" s="14"/>
+      <c r="E198" s="15"/>
+      <c r="F198" s="15"/>
     </row>
     <row r="199" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A199" s="2" t="s">
@@ -45652,12 +45657,12 @@
       <c r="F200" s="5"/>
     </row>
     <row r="201" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A201" s="23"/>
-      <c r="B201" s="24"/>
-      <c r="C201" s="24"/>
-      <c r="D201" s="24"/>
-      <c r="E201" s="24"/>
-      <c r="F201" s="25"/>
+      <c r="A201" s="16"/>
+      <c r="B201" s="17"/>
+      <c r="C201" s="17"/>
+      <c r="D201" s="17"/>
+      <c r="E201" s="17"/>
+      <c r="F201" s="18"/>
     </row>
     <row r="202" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1">
       <c r="A202" s="2" t="s">
@@ -45685,7 +45690,7 @@
         <v>10</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F203" s="10"/>
     </row>
@@ -45710,7 +45715,7 @@
         <v>15</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C205" s="11"/>
       <c r="D205" s="11"/>
@@ -45721,57 +45726,57 @@
       <c r="A206" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B206" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C206" s="26"/>
-      <c r="D206" s="26"/>
-      <c r="E206" s="26"/>
-      <c r="F206" s="27"/>
+      <c r="B206" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C206" s="27"/>
+      <c r="D206" s="27"/>
+      <c r="E206" s="27"/>
+      <c r="F206" s="28"/>
     </row>
     <row r="207" spans="1:6" s="6" customFormat="1" ht="109.5" customHeight="1">
       <c r="A207" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B207" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C207" s="16"/>
-      <c r="D207" s="16"/>
-      <c r="E207" s="16"/>
-      <c r="F207" s="17"/>
+      <c r="B207" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C207" s="23"/>
+      <c r="D207" s="23"/>
+      <c r="E207" s="23"/>
+      <c r="F207" s="24"/>
     </row>
     <row r="208" spans="1:6" s="6" customFormat="1" ht="108" customHeight="1">
       <c r="A208" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B208" s="18"/>
-      <c r="C208" s="19"/>
-      <c r="D208" s="19"/>
-      <c r="E208" s="19"/>
-      <c r="F208" s="20"/>
+      <c r="B208" s="12"/>
+      <c r="C208" s="25"/>
+      <c r="D208" s="25"/>
+      <c r="E208" s="25"/>
+      <c r="F208" s="13"/>
     </row>
     <row r="209" spans="1:6" ht="149.25" customHeight="1">
       <c r="A209" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B209" s="18"/>
-      <c r="C209" s="20"/>
+      <c r="B209" s="12"/>
+      <c r="C209" s="13"/>
       <c r="D209" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E209" s="18"/>
-      <c r="F209" s="20"/>
+      <c r="E209" s="12"/>
+      <c r="F209" s="13"/>
     </row>
     <row r="213" spans="1:6" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A213" s="21" t="s">
+      <c r="A213" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B213" s="21"/>
-      <c r="C213" s="21"/>
-      <c r="D213" s="21"/>
-      <c r="E213" s="22"/>
-      <c r="F213" s="22"/>
+      <c r="B213" s="14"/>
+      <c r="C213" s="14"/>
+      <c r="D213" s="14"/>
+      <c r="E213" s="15"/>
+      <c r="F213" s="15"/>
     </row>
     <row r="214" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A214" s="2" t="s">
@@ -45802,12 +45807,12 @@
       <c r="F215" s="5"/>
     </row>
     <row r="216" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A216" s="23"/>
-      <c r="B216" s="24"/>
-      <c r="C216" s="24"/>
-      <c r="D216" s="24"/>
-      <c r="E216" s="24"/>
-      <c r="F216" s="25"/>
+      <c r="A216" s="16"/>
+      <c r="B216" s="17"/>
+      <c r="C216" s="17"/>
+      <c r="D216" s="17"/>
+      <c r="E216" s="17"/>
+      <c r="F216" s="18"/>
     </row>
     <row r="217" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1">
       <c r="A217" s="2" t="s">
@@ -45835,7 +45840,7 @@
         <v>10</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F218" s="10"/>
     </row>
@@ -45860,7 +45865,7 @@
         <v>15</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C220" s="11"/>
       <c r="D220" s="11"/>
@@ -45871,57 +45876,57 @@
       <c r="A221" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B221" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C221" s="26"/>
-      <c r="D221" s="26"/>
-      <c r="E221" s="26"/>
-      <c r="F221" s="27"/>
+      <c r="B221" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C221" s="27"/>
+      <c r="D221" s="27"/>
+      <c r="E221" s="27"/>
+      <c r="F221" s="28"/>
     </row>
     <row r="222" spans="1:6" s="6" customFormat="1" ht="109.5" customHeight="1">
       <c r="A222" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B222" s="15" t="s">
+      <c r="B222" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C222" s="16"/>
-      <c r="D222" s="16"/>
-      <c r="E222" s="16"/>
-      <c r="F222" s="17"/>
+      <c r="C222" s="23"/>
+      <c r="D222" s="23"/>
+      <c r="E222" s="23"/>
+      <c r="F222" s="24"/>
     </row>
     <row r="223" spans="1:6" s="6" customFormat="1" ht="108" customHeight="1">
       <c r="A223" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B223" s="18"/>
-      <c r="C223" s="19"/>
-      <c r="D223" s="19"/>
-      <c r="E223" s="19"/>
-      <c r="F223" s="20"/>
+      <c r="B223" s="12"/>
+      <c r="C223" s="25"/>
+      <c r="D223" s="25"/>
+      <c r="E223" s="25"/>
+      <c r="F223" s="13"/>
     </row>
     <row r="224" spans="1:6" ht="149.25" customHeight="1">
       <c r="A224" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B224" s="18"/>
-      <c r="C224" s="20"/>
+      <c r="B224" s="12"/>
+      <c r="C224" s="13"/>
       <c r="D224" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E224" s="18"/>
-      <c r="F224" s="20"/>
+      <c r="E224" s="12"/>
+      <c r="F224" s="13"/>
     </row>
     <row r="228" spans="1:6" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A228" s="21" t="s">
+      <c r="A228" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B228" s="21"/>
-      <c r="C228" s="21"/>
-      <c r="D228" s="21"/>
-      <c r="E228" s="22"/>
-      <c r="F228" s="22"/>
+      <c r="B228" s="14"/>
+      <c r="C228" s="14"/>
+      <c r="D228" s="14"/>
+      <c r="E228" s="15"/>
+      <c r="F228" s="15"/>
     </row>
     <row r="229" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A229" s="2" t="s">
@@ -45952,12 +45957,12 @@
       <c r="F230" s="5"/>
     </row>
     <row r="231" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A231" s="23"/>
-      <c r="B231" s="24"/>
-      <c r="C231" s="24"/>
-      <c r="D231" s="24"/>
-      <c r="E231" s="24"/>
-      <c r="F231" s="25"/>
+      <c r="A231" s="16"/>
+      <c r="B231" s="17"/>
+      <c r="C231" s="17"/>
+      <c r="D231" s="17"/>
+      <c r="E231" s="17"/>
+      <c r="F231" s="18"/>
     </row>
     <row r="232" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1">
       <c r="A232" s="2" t="s">
@@ -45985,7 +45990,7 @@
         <v>10</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F233" s="10"/>
     </row>
@@ -46010,7 +46015,7 @@
         <v>15</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C235" s="11"/>
       <c r="D235" s="11"/>
@@ -46021,57 +46026,57 @@
       <c r="A236" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B236" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C236" s="26"/>
-      <c r="D236" s="26"/>
-      <c r="E236" s="26"/>
-      <c r="F236" s="27"/>
+      <c r="B236" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C236" s="27"/>
+      <c r="D236" s="27"/>
+      <c r="E236" s="27"/>
+      <c r="F236" s="28"/>
     </row>
     <row r="237" spans="1:6" s="6" customFormat="1" ht="109.5" customHeight="1">
       <c r="A237" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B237" s="15" t="s">
+      <c r="B237" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C237" s="16"/>
-      <c r="D237" s="16"/>
-      <c r="E237" s="16"/>
-      <c r="F237" s="17"/>
+      <c r="C237" s="23"/>
+      <c r="D237" s="23"/>
+      <c r="E237" s="23"/>
+      <c r="F237" s="24"/>
     </row>
     <row r="238" spans="1:6" s="6" customFormat="1" ht="108" customHeight="1">
       <c r="A238" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B238" s="18"/>
-      <c r="C238" s="19"/>
-      <c r="D238" s="19"/>
-      <c r="E238" s="19"/>
-      <c r="F238" s="20"/>
+      <c r="B238" s="12"/>
+      <c r="C238" s="25"/>
+      <c r="D238" s="25"/>
+      <c r="E238" s="25"/>
+      <c r="F238" s="13"/>
     </row>
     <row r="239" spans="1:6" ht="149.25" customHeight="1">
       <c r="A239" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B239" s="18"/>
-      <c r="C239" s="20"/>
+      <c r="B239" s="12"/>
+      <c r="C239" s="13"/>
       <c r="D239" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E239" s="18"/>
-      <c r="F239" s="20"/>
+      <c r="E239" s="12"/>
+      <c r="F239" s="13"/>
     </row>
     <row r="243" spans="1:6" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A243" s="21" t="s">
+      <c r="A243" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B243" s="21"/>
-      <c r="C243" s="21"/>
-      <c r="D243" s="21"/>
-      <c r="E243" s="22"/>
-      <c r="F243" s="22"/>
+      <c r="B243" s="14"/>
+      <c r="C243" s="14"/>
+      <c r="D243" s="14"/>
+      <c r="E243" s="15"/>
+      <c r="F243" s="15"/>
     </row>
     <row r="244" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A244" s="2" t="s">
@@ -46102,19 +46107,19 @@
       <c r="F245" s="5"/>
     </row>
     <row r="246" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A246" s="23"/>
-      <c r="B246" s="24"/>
-      <c r="C246" s="24"/>
-      <c r="D246" s="24"/>
-      <c r="E246" s="24"/>
-      <c r="F246" s="25"/>
+      <c r="A246" s="16"/>
+      <c r="B246" s="17"/>
+      <c r="C246" s="17"/>
+      <c r="D246" s="17"/>
+      <c r="E246" s="17"/>
+      <c r="F246" s="18"/>
     </row>
     <row r="247" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1">
       <c r="A247" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C247" s="10"/>
       <c r="D247" s="2" t="s">
@@ -46171,57 +46176,57 @@
       <c r="A251" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B251" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C251" s="13"/>
-      <c r="D251" s="13"/>
-      <c r="E251" s="13"/>
-      <c r="F251" s="14"/>
+      <c r="B251" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C251" s="20"/>
+      <c r="D251" s="20"/>
+      <c r="E251" s="20"/>
+      <c r="F251" s="21"/>
     </row>
     <row r="252" spans="1:6" s="6" customFormat="1" ht="109.5" customHeight="1">
       <c r="A252" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B252" s="28" t="s">
+      <c r="B252" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C252" s="16"/>
-      <c r="D252" s="16"/>
-      <c r="E252" s="16"/>
-      <c r="F252" s="17"/>
+      <c r="C252" s="23"/>
+      <c r="D252" s="23"/>
+      <c r="E252" s="23"/>
+      <c r="F252" s="24"/>
     </row>
     <row r="253" spans="1:6" s="6" customFormat="1" ht="108" customHeight="1">
       <c r="A253" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B253" s="18"/>
-      <c r="C253" s="19"/>
-      <c r="D253" s="19"/>
-      <c r="E253" s="19"/>
-      <c r="F253" s="20"/>
+      <c r="B253" s="12"/>
+      <c r="C253" s="25"/>
+      <c r="D253" s="25"/>
+      <c r="E253" s="25"/>
+      <c r="F253" s="13"/>
     </row>
     <row r="254" spans="1:6" ht="149.25" customHeight="1">
       <c r="A254" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B254" s="18"/>
-      <c r="C254" s="20"/>
+      <c r="B254" s="12"/>
+      <c r="C254" s="13"/>
       <c r="D254" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E254" s="18"/>
-      <c r="F254" s="20"/>
+      <c r="E254" s="12"/>
+      <c r="F254" s="13"/>
     </row>
     <row r="258" spans="1:6" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A258" s="21" t="s">
+      <c r="A258" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B258" s="21"/>
-      <c r="C258" s="21"/>
-      <c r="D258" s="21"/>
-      <c r="E258" s="22"/>
-      <c r="F258" s="22"/>
+      <c r="B258" s="14"/>
+      <c r="C258" s="14"/>
+      <c r="D258" s="14"/>
+      <c r="E258" s="15"/>
+      <c r="F258" s="15"/>
     </row>
     <row r="259" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A259" s="2" t="s">
@@ -46240,7 +46245,7 @@
         <v>4</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="260" spans="1:6" s="1" customFormat="1" ht="2.25" customHeight="1" thickBot="1">
@@ -46252,26 +46257,26 @@
       <c r="F260" s="5"/>
     </row>
     <row r="261" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A261" s="23"/>
-      <c r="B261" s="24"/>
-      <c r="C261" s="24"/>
-      <c r="D261" s="24"/>
-      <c r="E261" s="24"/>
-      <c r="F261" s="25"/>
+      <c r="A261" s="16"/>
+      <c r="B261" s="17"/>
+      <c r="C261" s="17"/>
+      <c r="D261" s="17"/>
+      <c r="E261" s="17"/>
+      <c r="F261" s="18"/>
     </row>
     <row r="262" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1">
       <c r="A262" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C262" s="10"/>
       <c r="D262" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E262" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F262" s="10"/>
     </row>
@@ -46285,7 +46290,7 @@
         <v>10</v>
       </c>
       <c r="E263" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F263" s="10"/>
     </row>
@@ -46310,7 +46315,7 @@
         <v>15</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C265" s="11"/>
       <c r="D265" s="11"/>
@@ -46321,55 +46326,55 @@
       <c r="A266" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B266" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C266" s="13"/>
-      <c r="D266" s="13"/>
-      <c r="E266" s="13"/>
-      <c r="F266" s="14"/>
+      <c r="B266" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C266" s="20"/>
+      <c r="D266" s="20"/>
+      <c r="E266" s="20"/>
+      <c r="F266" s="21"/>
     </row>
     <row r="267" spans="1:6" s="6" customFormat="1" ht="109.5" customHeight="1">
       <c r="A267" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B267" s="15"/>
-      <c r="C267" s="16"/>
-      <c r="D267" s="16"/>
-      <c r="E267" s="16"/>
-      <c r="F267" s="17"/>
+      <c r="B267" s="22"/>
+      <c r="C267" s="23"/>
+      <c r="D267" s="23"/>
+      <c r="E267" s="23"/>
+      <c r="F267" s="24"/>
     </row>
     <row r="268" spans="1:6" s="6" customFormat="1" ht="108" customHeight="1">
       <c r="A268" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B268" s="18"/>
-      <c r="C268" s="19"/>
-      <c r="D268" s="19"/>
-      <c r="E268" s="19"/>
-      <c r="F268" s="20"/>
+      <c r="B268" s="12"/>
+      <c r="C268" s="25"/>
+      <c r="D268" s="25"/>
+      <c r="E268" s="25"/>
+      <c r="F268" s="13"/>
     </row>
     <row r="269" spans="1:6" ht="149.25" customHeight="1">
       <c r="A269" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B269" s="18"/>
-      <c r="C269" s="20"/>
+      <c r="B269" s="12"/>
+      <c r="C269" s="13"/>
       <c r="D269" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E269" s="18"/>
-      <c r="F269" s="20"/>
+      <c r="E269" s="12"/>
+      <c r="F269" s="13"/>
     </row>
     <row r="273" spans="1:6" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A273" s="21" t="s">
+      <c r="A273" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B273" s="21"/>
-      <c r="C273" s="21"/>
-      <c r="D273" s="21"/>
-      <c r="E273" s="22"/>
-      <c r="F273" s="22"/>
+      <c r="B273" s="14"/>
+      <c r="C273" s="14"/>
+      <c r="D273" s="14"/>
+      <c r="E273" s="15"/>
+      <c r="F273" s="15"/>
     </row>
     <row r="274" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A274" s="2" t="s">
@@ -46388,7 +46393,7 @@
         <v>4</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="275" spans="1:6" s="1" customFormat="1" ht="2.25" customHeight="1" thickBot="1">
@@ -46400,26 +46405,26 @@
       <c r="F275" s="5"/>
     </row>
     <row r="276" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A276" s="23"/>
-      <c r="B276" s="24"/>
-      <c r="C276" s="24"/>
-      <c r="D276" s="24"/>
-      <c r="E276" s="24"/>
-      <c r="F276" s="25"/>
+      <c r="A276" s="16"/>
+      <c r="B276" s="17"/>
+      <c r="C276" s="17"/>
+      <c r="D276" s="17"/>
+      <c r="E276" s="17"/>
+      <c r="F276" s="18"/>
     </row>
     <row r="277" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1">
       <c r="A277" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C277" s="10"/>
       <c r="D277" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E277" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F277" s="10"/>
     </row>
@@ -46433,7 +46438,7 @@
         <v>10</v>
       </c>
       <c r="E278" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F278" s="10"/>
     </row>
@@ -46458,7 +46463,7 @@
         <v>15</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C280" s="11"/>
       <c r="D280" s="11"/>
@@ -46469,55 +46474,55 @@
       <c r="A281" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B281" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C281" s="13"/>
-      <c r="D281" s="13"/>
-      <c r="E281" s="13"/>
-      <c r="F281" s="14"/>
+      <c r="B281" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C281" s="20"/>
+      <c r="D281" s="20"/>
+      <c r="E281" s="20"/>
+      <c r="F281" s="21"/>
     </row>
     <row r="282" spans="1:6" s="6" customFormat="1" ht="109.5" customHeight="1">
       <c r="A282" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B282" s="15"/>
-      <c r="C282" s="16"/>
-      <c r="D282" s="16"/>
-      <c r="E282" s="16"/>
-      <c r="F282" s="17"/>
+      <c r="B282" s="22"/>
+      <c r="C282" s="23"/>
+      <c r="D282" s="23"/>
+      <c r="E282" s="23"/>
+      <c r="F282" s="24"/>
     </row>
     <row r="283" spans="1:6" s="6" customFormat="1" ht="108" customHeight="1">
       <c r="A283" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B283" s="18"/>
-      <c r="C283" s="19"/>
-      <c r="D283" s="19"/>
-      <c r="E283" s="19"/>
-      <c r="F283" s="20"/>
+      <c r="B283" s="12"/>
+      <c r="C283" s="25"/>
+      <c r="D283" s="25"/>
+      <c r="E283" s="25"/>
+      <c r="F283" s="13"/>
     </row>
     <row r="284" spans="1:6" ht="149.25" customHeight="1">
       <c r="A284" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B284" s="18"/>
-      <c r="C284" s="20"/>
+      <c r="B284" s="12"/>
+      <c r="C284" s="13"/>
       <c r="D284" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E284" s="18"/>
-      <c r="F284" s="20"/>
+      <c r="E284" s="12"/>
+      <c r="F284" s="13"/>
     </row>
     <row r="289" spans="1:6" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A289" s="21" t="s">
+      <c r="A289" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B289" s="21"/>
-      <c r="C289" s="21"/>
-      <c r="D289" s="21"/>
-      <c r="E289" s="22"/>
-      <c r="F289" s="22"/>
+      <c r="B289" s="14"/>
+      <c r="C289" s="14"/>
+      <c r="D289" s="14"/>
+      <c r="E289" s="15"/>
+      <c r="F289" s="15"/>
     </row>
     <row r="290" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A290" s="2" t="s">
@@ -46536,7 +46541,7 @@
         <v>4</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="291" spans="1:6" s="1" customFormat="1" ht="2.25" customHeight="1" thickBot="1">
@@ -46548,26 +46553,26 @@
       <c r="F291" s="5"/>
     </row>
     <row r="292" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A292" s="23"/>
-      <c r="B292" s="24"/>
-      <c r="C292" s="24"/>
-      <c r="D292" s="24"/>
-      <c r="E292" s="24"/>
-      <c r="F292" s="25"/>
+      <c r="A292" s="16"/>
+      <c r="B292" s="17"/>
+      <c r="C292" s="17"/>
+      <c r="D292" s="17"/>
+      <c r="E292" s="17"/>
+      <c r="F292" s="18"/>
     </row>
     <row r="293" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1">
       <c r="A293" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C293" s="10"/>
       <c r="D293" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E293" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F293" s="10"/>
     </row>
@@ -46581,7 +46586,7 @@
         <v>10</v>
       </c>
       <c r="E294" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F294" s="10"/>
     </row>
@@ -46606,7 +46611,7 @@
         <v>15</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C296" s="11"/>
       <c r="D296" s="11"/>
@@ -46617,55 +46622,55 @@
       <c r="A297" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B297" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C297" s="13"/>
-      <c r="D297" s="13"/>
-      <c r="E297" s="13"/>
-      <c r="F297" s="14"/>
+      <c r="B297" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C297" s="20"/>
+      <c r="D297" s="20"/>
+      <c r="E297" s="20"/>
+      <c r="F297" s="21"/>
     </row>
     <row r="298" spans="1:6" s="6" customFormat="1" ht="109.5" customHeight="1">
       <c r="A298" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B298" s="15"/>
-      <c r="C298" s="16"/>
-      <c r="D298" s="16"/>
-      <c r="E298" s="16"/>
-      <c r="F298" s="17"/>
+      <c r="B298" s="22"/>
+      <c r="C298" s="23"/>
+      <c r="D298" s="23"/>
+      <c r="E298" s="23"/>
+      <c r="F298" s="24"/>
     </row>
     <row r="299" spans="1:6" s="6" customFormat="1" ht="108" customHeight="1">
       <c r="A299" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B299" s="18"/>
-      <c r="C299" s="19"/>
-      <c r="D299" s="19"/>
-      <c r="E299" s="19"/>
-      <c r="F299" s="20"/>
+      <c r="B299" s="12"/>
+      <c r="C299" s="25"/>
+      <c r="D299" s="25"/>
+      <c r="E299" s="25"/>
+      <c r="F299" s="13"/>
     </row>
     <row r="300" spans="1:6" ht="149.25" customHeight="1">
       <c r="A300" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B300" s="18"/>
-      <c r="C300" s="20"/>
+      <c r="B300" s="12"/>
+      <c r="C300" s="13"/>
       <c r="D300" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E300" s="18"/>
-      <c r="F300" s="20"/>
+      <c r="E300" s="12"/>
+      <c r="F300" s="13"/>
     </row>
     <row r="305" spans="1:6" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A305" s="21" t="s">
+      <c r="A305" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B305" s="21"/>
-      <c r="C305" s="21"/>
-      <c r="D305" s="21"/>
-      <c r="E305" s="22"/>
-      <c r="F305" s="22"/>
+      <c r="B305" s="14"/>
+      <c r="C305" s="14"/>
+      <c r="D305" s="14"/>
+      <c r="E305" s="15"/>
+      <c r="F305" s="15"/>
     </row>
     <row r="306" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A306" s="2" t="s">
@@ -46684,7 +46689,7 @@
         <v>4</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="307" spans="1:6" s="1" customFormat="1" ht="2.25" customHeight="1" thickBot="1">
@@ -46696,12 +46701,12 @@
       <c r="F307" s="5"/>
     </row>
     <row r="308" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A308" s="23"/>
-      <c r="B308" s="24"/>
-      <c r="C308" s="24"/>
-      <c r="D308" s="24"/>
-      <c r="E308" s="24"/>
-      <c r="F308" s="25"/>
+      <c r="A308" s="16"/>
+      <c r="B308" s="17"/>
+      <c r="C308" s="17"/>
+      <c r="D308" s="17"/>
+      <c r="E308" s="17"/>
+      <c r="F308" s="18"/>
     </row>
     <row r="309" spans="1:6" s="6" customFormat="1" ht="27.75" customHeight="1">
       <c r="A309" s="2" t="s">
@@ -46715,7 +46720,7 @@
         <v>7</v>
       </c>
       <c r="E309" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F309" s="10"/>
     </row>
@@ -46729,7 +46734,7 @@
         <v>10</v>
       </c>
       <c r="E310" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F310" s="10"/>
     </row>
@@ -46754,7 +46759,7 @@
         <v>15</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C312" s="11"/>
       <c r="D312" s="11"/>
@@ -46765,120 +46770,245 @@
       <c r="A313" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B313" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C313" s="13"/>
-      <c r="D313" s="13"/>
-      <c r="E313" s="13"/>
-      <c r="F313" s="14"/>
+      <c r="B313" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C313" s="20"/>
+      <c r="D313" s="20"/>
+      <c r="E313" s="20"/>
+      <c r="F313" s="21"/>
     </row>
     <row r="314" spans="1:6" s="6" customFormat="1" ht="109.5" customHeight="1">
       <c r="A314" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B314" s="15"/>
-      <c r="C314" s="16"/>
-      <c r="D314" s="16"/>
-      <c r="E314" s="16"/>
-      <c r="F314" s="17"/>
+      <c r="B314" s="22"/>
+      <c r="C314" s="23"/>
+      <c r="D314" s="23"/>
+      <c r="E314" s="23"/>
+      <c r="F314" s="24"/>
     </row>
     <row r="315" spans="1:6" s="6" customFormat="1" ht="108" customHeight="1">
       <c r="A315" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B315" s="18"/>
-      <c r="C315" s="19"/>
-      <c r="D315" s="19"/>
-      <c r="E315" s="19"/>
-      <c r="F315" s="20"/>
+      <c r="B315" s="12"/>
+      <c r="C315" s="25"/>
+      <c r="D315" s="25"/>
+      <c r="E315" s="25"/>
+      <c r="F315" s="13"/>
     </row>
     <row r="316" spans="1:6" ht="149.25" customHeight="1">
       <c r="A316" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B316" s="18"/>
-      <c r="C316" s="20"/>
+      <c r="B316" s="12"/>
+      <c r="C316" s="13"/>
       <c r="D316" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E316" s="18"/>
-      <c r="F316" s="20"/>
+      <c r="E316" s="12"/>
+      <c r="F316" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="294">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="E310:F310"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="E311:F311"/>
+    <mergeCell ref="B312:F312"/>
+    <mergeCell ref="B313:F313"/>
+    <mergeCell ref="B314:F314"/>
+    <mergeCell ref="B315:F315"/>
+    <mergeCell ref="B316:C316"/>
+    <mergeCell ref="E316:F316"/>
+    <mergeCell ref="B297:F297"/>
+    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="B299:F299"/>
+    <mergeCell ref="B300:C300"/>
+    <mergeCell ref="E300:F300"/>
+    <mergeCell ref="A305:F305"/>
+    <mergeCell ref="A308:F308"/>
+    <mergeCell ref="B309:C309"/>
+    <mergeCell ref="E309:F309"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A292:F292"/>
+    <mergeCell ref="B293:C293"/>
+    <mergeCell ref="E293:F293"/>
+    <mergeCell ref="B294:C294"/>
+    <mergeCell ref="E294:F294"/>
+    <mergeCell ref="B295:C295"/>
+    <mergeCell ref="E295:F295"/>
+    <mergeCell ref="B296:F296"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="E278:F278"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="E279:F279"/>
+    <mergeCell ref="B280:F280"/>
+    <mergeCell ref="B281:F281"/>
+    <mergeCell ref="B282:F282"/>
+    <mergeCell ref="B283:F283"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="E284:F284"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="B267:F267"/>
+    <mergeCell ref="B268:F268"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="E269:F269"/>
+    <mergeCell ref="A273:F273"/>
+    <mergeCell ref="A276:F276"/>
+    <mergeCell ref="B277:C277"/>
+    <mergeCell ref="E277:F277"/>
+    <mergeCell ref="A258:F258"/>
+    <mergeCell ref="A261:F261"/>
+    <mergeCell ref="B262:C262"/>
+    <mergeCell ref="E262:F262"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="E263:F263"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="E264:F264"/>
+    <mergeCell ref="B265:F265"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="E239:F239"/>
+    <mergeCell ref="A243:F243"/>
+    <mergeCell ref="A246:F246"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="E247:F247"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="E234:F234"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B236:F236"/>
+    <mergeCell ref="B237:F237"/>
+    <mergeCell ref="B238:F238"/>
+    <mergeCell ref="B252:F252"/>
+    <mergeCell ref="B253:F253"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="E254:F254"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="E248:F248"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="E249:F249"/>
+    <mergeCell ref="B250:F250"/>
+    <mergeCell ref="B251:F251"/>
+    <mergeCell ref="A231:F231"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="E232:F232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="E233:F233"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="E224:F224"/>
+    <mergeCell ref="A228:F228"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="E217:F217"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="E218:F218"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="E219:F219"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="E209:F209"/>
+    <mergeCell ref="A213:F213"/>
+    <mergeCell ref="A216:F216"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="E203:F203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="E204:F204"/>
+    <mergeCell ref="B205:F205"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="E194:F194"/>
+    <mergeCell ref="A198:F198"/>
+    <mergeCell ref="A201:F201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="E202:F202"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="E189:F189"/>
+    <mergeCell ref="B190:F190"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B192:F192"/>
+    <mergeCell ref="B193:F193"/>
+    <mergeCell ref="A183:F183"/>
+    <mergeCell ref="A186:F186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="E188:F188"/>
+    <mergeCell ref="B175:F175"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B178:F178"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="B163:F163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="A168:F168"/>
+    <mergeCell ref="A171:F171"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="B160:F160"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="A153:F153"/>
+    <mergeCell ref="A156:F156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="E144:F144"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="A141:F141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="E134:F134"/>
     <mergeCell ref="B127:C127"/>
     <mergeCell ref="E127:F127"/>
     <mergeCell ref="B128:C128"/>
@@ -46903,204 +47033,79 @@
     <mergeCell ref="B118:F118"/>
     <mergeCell ref="B119:C119"/>
     <mergeCell ref="E119:F119"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="A141:F141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="E143:F143"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="A153:F153"/>
-    <mergeCell ref="A156:F156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="E144:F144"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="B163:F163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="A168:F168"/>
-    <mergeCell ref="A171:F171"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="B160:F160"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="B175:F175"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="E189:F189"/>
-    <mergeCell ref="B190:F190"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B192:F192"/>
-    <mergeCell ref="B193:F193"/>
-    <mergeCell ref="A183:F183"/>
-    <mergeCell ref="A186:F186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="E188:F188"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="E203:F203"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="E204:F204"/>
-    <mergeCell ref="B205:F205"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="E194:F194"/>
-    <mergeCell ref="A198:F198"/>
-    <mergeCell ref="A201:F201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="E202:F202"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="E217:F217"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="E218:F218"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="E219:F219"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="E209:F209"/>
-    <mergeCell ref="A213:F213"/>
-    <mergeCell ref="A216:F216"/>
-    <mergeCell ref="A231:F231"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="E232:F232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="E233:F233"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="E224:F224"/>
-    <mergeCell ref="A228:F228"/>
-    <mergeCell ref="B252:F252"/>
-    <mergeCell ref="B253:F253"/>
-    <mergeCell ref="B254:C254"/>
-    <mergeCell ref="E254:F254"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="E248:F248"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="E249:F249"/>
-    <mergeCell ref="B250:F250"/>
-    <mergeCell ref="B251:F251"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="E239:F239"/>
-    <mergeCell ref="A243:F243"/>
-    <mergeCell ref="A246:F246"/>
-    <mergeCell ref="B247:C247"/>
-    <mergeCell ref="E247:F247"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="E234:F234"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B236:F236"/>
-    <mergeCell ref="B237:F237"/>
-    <mergeCell ref="B238:F238"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="E43:F43"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A258:F258"/>
-    <mergeCell ref="A261:F261"/>
-    <mergeCell ref="B262:C262"/>
-    <mergeCell ref="E262:F262"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="E263:F263"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="E264:F264"/>
-    <mergeCell ref="B265:F265"/>
-    <mergeCell ref="B266:F266"/>
-    <mergeCell ref="B267:F267"/>
-    <mergeCell ref="B268:F268"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="E269:F269"/>
-    <mergeCell ref="A273:F273"/>
-    <mergeCell ref="A276:F276"/>
-    <mergeCell ref="B277:C277"/>
-    <mergeCell ref="E277:F277"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="E278:F278"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="E279:F279"/>
-    <mergeCell ref="B280:F280"/>
-    <mergeCell ref="B281:F281"/>
-    <mergeCell ref="B282:F282"/>
-    <mergeCell ref="B283:F283"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="E284:F284"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A292:F292"/>
-    <mergeCell ref="B293:C293"/>
-    <mergeCell ref="E293:F293"/>
-    <mergeCell ref="B294:C294"/>
-    <mergeCell ref="E294:F294"/>
-    <mergeCell ref="B295:C295"/>
-    <mergeCell ref="E295:F295"/>
-    <mergeCell ref="B296:F296"/>
-    <mergeCell ref="B297:F297"/>
-    <mergeCell ref="B298:F298"/>
-    <mergeCell ref="B299:F299"/>
-    <mergeCell ref="B300:C300"/>
-    <mergeCell ref="E300:F300"/>
-    <mergeCell ref="A305:F305"/>
-    <mergeCell ref="A308:F308"/>
-    <mergeCell ref="B309:C309"/>
-    <mergeCell ref="E309:F309"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="E310:F310"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="E311:F311"/>
-    <mergeCell ref="B312:F312"/>
-    <mergeCell ref="B313:F313"/>
-    <mergeCell ref="B314:F314"/>
-    <mergeCell ref="B315:F315"/>
-    <mergeCell ref="B316:C316"/>
-    <mergeCell ref="E316:F316"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
